--- a/text.xlsx
+++ b/text.xlsx
@@ -9,14 +9,14 @@
     <sheet name="Notes" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Notes'!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Notes'!$A$1:$G$38</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>PSPath</t>
   </si>
@@ -461,22 +461,226 @@
     <t>Origin</t>
   </si>
   <si>
-    <t>The VMHostName</t>
-  </si>
-  <si>
-    <t>Derived from</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>VMID</t>
-  </si>
-  <si>
-    <t>The VMID</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Native PowerCLI</t>
+  </si>
+  <si>
+    <t>$_.Name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>$_.ID</t>
+  </si>
+  <si>
+    <t>HostName</t>
+  </si>
+  <si>
+    <t>$_..ExtensionData.Guest.Hostname</t>
+  </si>
+  <si>
+    <t>Powerstate</t>
+  </si>
+  <si>
+    <t>$_.Powerstate</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>$_.extensiondata.config.version</t>
+  </si>
+  <si>
+    <t>MemoryGB</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>$_.MemoryGB</t>
+  </si>
+  <si>
+    <t>CPUCores</t>
+  </si>
+  <si>
+    <t>$_.NumCpu</t>
+  </si>
+  <si>
+    <t>TotalDiskSizeGB</t>
+  </si>
+  <si>
+    <t>UsedSpaceGB</t>
+  </si>
+  <si>
+    <t>$_.UsedSpaceGB</t>
+  </si>
+  <si>
+    <t>ProvisionedSpaceGB</t>
+  </si>
+  <si>
+    <t>$_.ProvisionedSpaceGB</t>
+  </si>
+  <si>
+    <t>ToolsVersion</t>
+  </si>
+  <si>
+    <t>$_.ToolsVersion</t>
+  </si>
+  <si>
+    <t>GuestFullName</t>
+  </si>
+  <si>
+    <t>$_.ExtensionData.Guest.Guestfullname</t>
+  </si>
+  <si>
+    <t>CreateDate</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>$_.ExtensionData.Config.CreateDate</t>
+  </si>
+  <si>
+    <t>vCenter</t>
+  </si>
+  <si>
+    <t>(get-vmhost -vm $oVMGuest).name</t>
+  </si>
+  <si>
+    <t>HostVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(get-vmhost -vm $oVMGuest).version </t>
+  </si>
+  <si>
+    <t>HostBuild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(get-vmhost -vm $oVMGuest).build </t>
+  </si>
+  <si>
+    <t>Datacenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Get-Datacenter -Server $VCServer -vm $oVMGuest.name) </t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Get-Cluster -Server $VCServer -vm $oVMGuest.name) </t>
+  </si>
+  <si>
+    <t>ResourcePool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Get-ResourcePool -Server $VCServer -VM $oVMGuest) </t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>The parent folder of the VM.</t>
+  </si>
+  <si>
+    <t>$_.Folder</t>
+  </si>
+  <si>
+    <t>$_.Notes</t>
+  </si>
+  <si>
+    <t>Snapshot</t>
+  </si>
+  <si>
+    <t>String Array</t>
+  </si>
+  <si>
+    <t>($oVMGuest | get-snapshot).created</t>
+  </si>
+  <si>
+    <t>LocationCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derived from Location ID custom attribute.  If guest attribute is empty, try the same attribute on the parent host.</t>
+  </si>
+  <si>
+    <t>AttributeName</t>
+  </si>
+  <si>
+    <t>AttributeValue</t>
+  </si>
+  <si>
+    <t>AttributeTag</t>
+  </si>
+  <si>
+    <t>(Get-TagAssignment -Entity $oVMGuest).Tag.Name</t>
+  </si>
+  <si>
+    <t>NetworkAdapter</t>
+  </si>
+  <si>
+    <t>(Get-NetworkAdapter -VM $oVMGuest).NetworkName</t>
+  </si>
+  <si>
+    <t>DiskLayoutStorageFormat</t>
+  </si>
+  <si>
+    <t>(get-HardDisk -VM $oVMGuest).StorageFormat</t>
+  </si>
+  <si>
+    <t>DiskLayoutPersistence</t>
+  </si>
+  <si>
+    <t>(get-HardDisk -VM $oVMGuest).Persistence</t>
+  </si>
+  <si>
+    <t>DiskLayoutDiskType</t>
+  </si>
+  <si>
+    <t>(get-HardDisk -VM $oVMGuest).DiskType</t>
+  </si>
+  <si>
+    <t>DiskDatastore</t>
+  </si>
+  <si>
+    <t>DiskName</t>
+  </si>
+  <si>
+    <t>(get-HardDisk -VM $oVMGuest).Name</t>
+  </si>
+  <si>
+    <t>DiskID</t>
+  </si>
+  <si>
+    <t>(Get-SpbmEntityConfiguration -HardDisk (Get-HardDisk -VM $oVMGuest)).id</t>
+  </si>
+  <si>
+    <t>DiskStoragePolicy</t>
+  </si>
+  <si>
+    <t>(Get-SpbmEntityConfiguration -HardDisk (Get-HardDisk -VM $oVMGuest)).storagepolicy.name</t>
+  </si>
+  <si>
+    <t>DiskFileName</t>
+  </si>
+  <si>
+    <t>(get-HardDisk -VM $oVMGuest).Filename</t>
+  </si>
+  <si>
+    <t>DiskSizeGB</t>
+  </si>
+  <si>
+    <t>(get-HardDisk -VM $oVMGuest).CapacityGB</t>
   </si>
 </sst>
 </file>
@@ -694,7 +898,7 @@
         <v>38</v>
       </c>
       <c r="N2" s="1">
-        <v>2542</v>
+        <v>2552</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>39</v>
@@ -724,16 +928,16 @@
         <v>45044.87712229167</v>
       </c>
       <c r="X2" s="2">
-        <v>45046.889340960646</v>
+        <v>45047.456367280094</v>
       </c>
       <c r="Y2" s="2">
-        <v>45046.84767429398</v>
+        <v>45047.41470061342</v>
       </c>
       <c r="Z2" s="2">
-        <v>45046.797820659725</v>
+        <v>45047.456367280094</v>
       </c>
       <c r="AA2" s="2">
-        <v>45046.756153993054</v>
+        <v>45047.41470061342</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>41</v>
@@ -777,7 +981,7 @@
         <v>47</v>
       </c>
       <c r="N3" s="1">
-        <v>3634</v>
+        <v>3637</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>39</v>
@@ -807,16 +1011,16 @@
         <v>45044.87712230324</v>
       </c>
       <c r="X3" s="2">
-        <v>45046.90065405093</v>
+        <v>45047.456367280094</v>
       </c>
       <c r="Y3" s="2">
-        <v>45046.85898738426</v>
+        <v>45047.41470061342</v>
       </c>
       <c r="Z3" s="2">
-        <v>45046.68796614583</v>
+        <v>45047.456367280094</v>
       </c>
       <c r="AA3" s="2">
-        <v>45046.646299479165</v>
+        <v>45047.41470061342</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>41</v>
@@ -890,10 +1094,10 @@
         <v>45039.39820740741</v>
       </c>
       <c r="X4" s="2">
-        <v>45046.90065412037</v>
+        <v>45047.454369189814</v>
       </c>
       <c r="Y4" s="2">
-        <v>45046.85898745371</v>
+        <v>45047.41270252315</v>
       </c>
       <c r="Z4" s="2">
         <v>45039.43987407407</v>
@@ -943,7 +1147,7 @@
         <v>57</v>
       </c>
       <c r="N5" s="1">
-        <v>9334</v>
+        <v>9328</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>39</v>
@@ -973,16 +1177,16 @@
         <v>45039.39820740741</v>
       </c>
       <c r="X5" s="2">
-        <v>45046.89642791667</v>
+        <v>45047.45226184028</v>
       </c>
       <c r="Y5" s="2">
-        <v>45046.85476125</v>
+        <v>45047.41059517361</v>
       </c>
       <c r="Z5" s="2">
-        <v>45046.677965636576</v>
+        <v>45046.90994760417</v>
       </c>
       <c r="AA5" s="2">
-        <v>45046.636298969905</v>
+        <v>45046.8682809375</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>41</v>
@@ -1026,7 +1230,7 @@
         <v>62</v>
       </c>
       <c r="N6" s="1">
-        <v>291</v>
+        <v>3571</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>39</v>
@@ -1056,16 +1260,16 @@
         <v>45046.84775556713</v>
       </c>
       <c r="X6" s="2">
-        <v>45046.90561931713</v>
+        <v>45047.456367280094</v>
       </c>
       <c r="Y6" s="2">
-        <v>45046.86395265046</v>
+        <v>45047.41470061342</v>
       </c>
       <c r="Z6" s="2">
-        <v>45046.90561931713</v>
+        <v>45047.456367280094</v>
       </c>
       <c r="AA6" s="2">
-        <v>45046.86395265046</v>
+        <v>45047.41470061342</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>41</v>
@@ -1139,16 +1343,16 @@
         <v>45039.39820740741</v>
       </c>
       <c r="X7" s="2">
-        <v>45046.90065431713</v>
+        <v>45047.45436940972</v>
       </c>
       <c r="Y7" s="2">
-        <v>45046.85898765046</v>
+        <v>45047.41270274306</v>
       </c>
       <c r="Z7" s="2">
-        <v>45046.79538394676</v>
+        <v>45046.90909743056</v>
       </c>
       <c r="AA7" s="2">
-        <v>45046.753717280095</v>
+        <v>45046.86743076389</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>41</v>
@@ -1192,7 +1396,7 @@
         <v>74</v>
       </c>
       <c r="N8" s="1">
-        <v>16026</v>
+        <v>15832</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>39</v>
@@ -1222,16 +1426,16 @@
         <v>45039.39820740741</v>
       </c>
       <c r="X8" s="2">
-        <v>45046.88934097222</v>
+        <v>45047.456367280094</v>
       </c>
       <c r="Y8" s="2">
-        <v>45046.84767430556</v>
+        <v>45047.41470061342</v>
       </c>
       <c r="Z8" s="2">
-        <v>45046.842910196756</v>
+        <v>45047.456367280094</v>
       </c>
       <c r="AA8" s="2">
-        <v>45046.80124353009</v>
+        <v>45047.41470061342</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>41</v>
@@ -1275,7 +1479,7 @@
         <v>80</v>
       </c>
       <c r="N9" s="1">
-        <v>1479</v>
+        <v>1667</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>39</v>
@@ -1305,16 +1509,16 @@
         <v>45046.75606377315</v>
       </c>
       <c r="X9" s="2">
-        <v>45046.90739849537</v>
+        <v>45047.458516770836</v>
       </c>
       <c r="Y9" s="2">
-        <v>45046.8657318287</v>
+        <v>45047.416850104164</v>
       </c>
       <c r="Z9" s="2">
-        <v>45046.90739849537</v>
+        <v>45047.458516770836</v>
       </c>
       <c r="AA9" s="2">
-        <v>45046.8657318287</v>
+        <v>45047.416850104164</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>41</v>
@@ -1388,10 +1592,10 @@
         <v>45046.62058337963</v>
       </c>
       <c r="X10" s="2">
-        <v>45046.90065449074</v>
+        <v>45047.45436959491</v>
       </c>
       <c r="Y10" s="2">
-        <v>45046.858987824075</v>
+        <v>45047.41270292824</v>
       </c>
       <c r="Z10" s="2">
         <v>45046.66263105324</v>
@@ -1471,10 +1675,10 @@
         <v>45046.467932534724</v>
       </c>
       <c r="X11" s="2">
-        <v>45046.90065454861</v>
+        <v>45047.45436969907</v>
       </c>
       <c r="Y11" s="2">
-        <v>45046.85898788195</v>
+        <v>45047.41270303241</v>
       </c>
       <c r="Z11" s="2">
         <v>45046.5104437037</v>
@@ -1554,10 +1758,10 @@
         <v>45046.4680709375</v>
       </c>
       <c r="X12" s="2">
-        <v>45046.90065458333</v>
+        <v>45047.45436980324</v>
       </c>
       <c r="Y12" s="2">
-        <v>45046.85898791667</v>
+        <v>45047.41270313657</v>
       </c>
       <c r="Z12" s="2">
         <v>45046.5104437037</v>
@@ -1579,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" state="frozen" activePane="bottomRight"/>
@@ -1590,11 +1794,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.504491806030273" customWidth="1"/>
-    <col min="3" max="3" width="13.005050659179688" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.062341690063477" customWidth="1"/>
+    <col min="2" max="2" width="26.556575775146484" customWidth="1"/>
+    <col min="3" max="3" width="11.7753267288208" customWidth="1"/>
+    <col min="4" max="4" width="100.53339385986328" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="84.15309143066406" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1613,37 +1819,866 @@
       <c r="E1" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>105</v>
+      <c r="E3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:G38"/>
   <headerFooter/>
 </worksheet>
 </file>